--- a/out/test/Figori_algorithm_8.xlsx
+++ b/out/test/Figori_algorithm_8.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.71209999999999996</v>
+        <v>0.70155000000000001</v>
       </c>
       <c r="B1">
-        <v>0.68459999999999999</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="C1">
-        <v>0.45734999999999998</v>
+        <v>0.71230000000000004</v>
       </c>
       <c r="D1">
-        <v>0.6905</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="E1">
-        <v>0.69030000000000002</v>
+        <v>0.69845000000000002</v>
       </c>
       <c r="F1">
-        <v>0.69074999999999998</v>
+        <v>0.68359999999999999</v>
       </c>
       <c r="G1">
-        <v>0.45005000000000001</v>
+        <v>0.68425000000000002</v>
       </c>
       <c r="H1">
-        <v>0.71184999999999998</v>
+        <v>0.46005000000000001</v>
       </c>
       <c r="I1">
-        <v>0.71004999999999996</v>
+        <v>0.68754999999999999</v>
       </c>
       <c r="J1">
-        <v>0.69020000000000004</v>
+        <v>0.69064999999999999</v>
       </c>
       <c r="K1">
-        <v>0.45450000000000002</v>
+        <v>0.45234999999999997</v>
       </c>
       <c r="L1">
-        <v>0.69199999999999995</v>
+        <v>0.68420000000000003</v>
       </c>
       <c r="M1">
-        <v>0.68730000000000002</v>
+        <v>0.68420000000000003</v>
       </c>
       <c r="N1">
-        <v>0.45265</v>
+        <v>0.68445</v>
       </c>
       <c r="O1">
-        <v>0.71209999999999996</v>
+        <v>0.69579999999999997</v>
       </c>
       <c r="P1">
-        <v>0.68874999999999997</v>
+        <v>0.68335000000000001</v>
       </c>
       <c r="Q1">
-        <v>0.70855000000000001</v>
+        <v>0.68869999999999998</v>
       </c>
       <c r="R1">
-        <v>0.69645000000000001</v>
+        <v>0.7046</v>
       </c>
       <c r="S1">
-        <v>0.45350000000000001</v>
+        <v>0.70989999999999998</v>
       </c>
       <c r="T1">
-        <v>0.69215000000000004</v>
+        <v>0.69174999999999998</v>
       </c>
       <c r="U1">
+        <v>0.71304999999999996</v>
+      </c>
+      <c r="V1">
+        <v>0.68540000000000001</v>
+      </c>
+      <c r="W1">
+        <v>0.70625000000000004</v>
+      </c>
+      <c r="X1">
+        <v>0.71265000000000001</v>
+      </c>
+      <c r="Y1">
+        <v>0.45365</v>
+      </c>
+      <c r="Z1">
+        <v>0.71165</v>
+      </c>
+      <c r="AA1">
+        <v>0.70369999999999999</v>
+      </c>
+      <c r="AB1">
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="AC1">
+        <v>0.7107</v>
+      </c>
+      <c r="AD1">
+        <v>0.68840000000000001</v>
+      </c>
+      <c r="AE1">
+        <v>0.69120000000000004</v>
+      </c>
+      <c r="AF1">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="AG1">
+        <v>0.68264999999999998</v>
+      </c>
+      <c r="AH1">
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="AI1">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="AJ1">
+        <v>0.68635000000000002</v>
+      </c>
+      <c r="AK1">
+        <v>0.68925000000000003</v>
+      </c>
+      <c r="AL1">
+        <v>0.68855</v>
+      </c>
+      <c r="AM1">
+        <v>0.71104999999999996</v>
+      </c>
+      <c r="AN1">
+        <v>0.69015000000000004</v>
+      </c>
+      <c r="AO1">
+        <v>0.45639999999999997</v>
+      </c>
+      <c r="AP1">
         <v>0.69330000000000003</v>
       </c>
-      <c r="V1">
-        <v>0.68515000000000004</v>
-      </c>
-      <c r="W1">
-        <v>0.68705000000000005</v>
-      </c>
-      <c r="X1">
-        <v>0.68205000000000005</v>
-      </c>
-      <c r="Y1">
-        <v>0.70574999999999999</v>
-      </c>
-      <c r="Z1">
-        <v>0.71135000000000004</v>
-      </c>
-      <c r="AA1">
-        <v>0.68494999999999995</v>
-      </c>
-      <c r="AB1">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="AC1">
-        <v>0.70745000000000002</v>
-      </c>
-      <c r="AD1">
-        <v>0.68820000000000003</v>
-      </c>
-      <c r="AE1">
-        <v>0.70109999999999995</v>
-      </c>
-      <c r="AF1">
-        <v>0.45505000000000001</v>
-      </c>
-      <c r="AG1">
-        <v>0.69064999999999999</v>
-      </c>
-      <c r="AH1">
-        <v>0.69120000000000004</v>
-      </c>
-      <c r="AI1">
-        <v>0.70155000000000001</v>
-      </c>
-      <c r="AJ1">
-        <v>0.70725000000000005</v>
-      </c>
-      <c r="AK1">
-        <v>0.69155</v>
-      </c>
-      <c r="AL1">
-        <v>0.69064999999999999</v>
-      </c>
-      <c r="AM1">
-        <v>0.68784999999999996</v>
-      </c>
-      <c r="AN1">
-        <v>0.68910000000000005</v>
-      </c>
-      <c r="AO1">
-        <v>0.67730000000000001</v>
-      </c>
-      <c r="AP1">
-        <v>0.68979999999999997</v>
-      </c>
       <c r="AQ1">
-        <v>0.68935000000000002</v>
+        <v>0.71260000000000001</v>
       </c>
       <c r="AR1">
-        <v>0.6905</v>
+        <v>0.69655</v>
       </c>
       <c r="AS1">
-        <v>0.70625000000000004</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="AT1">
-        <v>0.68894999999999995</v>
+        <v>0.70550000000000002</v>
       </c>
       <c r="AU1">
-        <v>0.68159999999999998</v>
+        <v>0.4536</v>
       </c>
       <c r="AV1">
-        <v>0.45629999999999998</v>
+        <v>0.69225000000000003</v>
       </c>
       <c r="AW1">
-        <v>0.68694999999999995</v>
+        <v>0.45365</v>
       </c>
       <c r="AX1">
-        <v>0.70684999999999998</v>
+        <v>0.70965</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.68084999999999996</v>
+        <v>0.70084999999999997</v>
       </c>
       <c r="B2">
-        <v>0.66920000000000002</v>
+        <v>0.43459999999999999</v>
       </c>
       <c r="C2">
-        <v>0.4299</v>
+        <v>0.69145000000000001</v>
       </c>
       <c r="D2">
-        <v>0.67344999999999999</v>
+        <v>0.68815000000000004</v>
       </c>
       <c r="E2">
-        <v>0.6885</v>
+        <v>0.68915000000000004</v>
       </c>
       <c r="F2">
-        <v>0.9405</v>
+        <v>0.65510000000000002</v>
       </c>
       <c r="G2">
-        <v>0.43869999999999998</v>
+        <v>0.68254999999999999</v>
       </c>
       <c r="H2">
-        <v>0.68925000000000003</v>
+        <v>0.44185000000000002</v>
       </c>
       <c r="I2">
-        <v>0.7</v>
+        <v>0.91364999999999996</v>
       </c>
       <c r="J2">
-        <v>0.68035000000000001</v>
+        <v>0.6744</v>
       </c>
       <c r="K2">
-        <v>0.4375</v>
+        <v>0.43685000000000002</v>
       </c>
       <c r="L2">
-        <v>0.67484999999999995</v>
+        <v>0.67854999999999999</v>
       </c>
       <c r="M2">
-        <v>0.67269999999999996</v>
+        <v>0.67520000000000002</v>
       </c>
       <c r="N2">
-        <v>0.44309999999999999</v>
+        <v>0.66705000000000003</v>
       </c>
       <c r="O2">
-        <v>0.7016</v>
+        <v>0.65869999999999995</v>
       </c>
       <c r="P2">
-        <v>0.66254999999999997</v>
+        <v>0.64424999999999999</v>
       </c>
       <c r="Q2">
-        <v>0.6875</v>
+        <v>0.69784999999999997</v>
       </c>
       <c r="R2">
-        <v>0.92249999999999999</v>
+        <v>0.68025000000000002</v>
       </c>
       <c r="S2">
-        <v>0.43795000000000001</v>
+        <v>0.69074999999999998</v>
       </c>
       <c r="T2">
-        <v>0.66759999999999997</v>
+        <v>0.67295000000000005</v>
       </c>
       <c r="U2">
-        <v>0.70089999999999997</v>
+        <v>0.68489999999999995</v>
       </c>
       <c r="V2">
-        <v>0.66120000000000001</v>
+        <v>0.66779999999999995</v>
       </c>
       <c r="W2">
-        <v>0.6492</v>
+        <v>0.69940000000000002</v>
       </c>
       <c r="X2">
-        <v>0.68440000000000001</v>
+        <v>0.66295000000000004</v>
       </c>
       <c r="Y2">
-        <v>0.66349999999999998</v>
+        <v>0.44290000000000002</v>
       </c>
       <c r="Z2">
-        <v>0.68364999999999998</v>
+        <v>0.68354999999999999</v>
       </c>
       <c r="AA2">
-        <v>0.66144999999999998</v>
+        <v>0.69469999999999998</v>
       </c>
       <c r="AB2">
+        <v>0.68320000000000003</v>
+      </c>
+      <c r="AC2">
+        <v>0.92910000000000004</v>
+      </c>
+      <c r="AD2">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="AE2">
+        <v>0.67169999999999996</v>
+      </c>
+      <c r="AF2">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="AG2">
+        <v>0.65425</v>
+      </c>
+      <c r="AH2">
+        <v>0.68674999999999997</v>
+      </c>
+      <c r="AI2">
+        <v>0.43695000000000001</v>
+      </c>
+      <c r="AJ2">
+        <v>0.65790000000000004</v>
+      </c>
+      <c r="AK2">
+        <v>0.65405000000000002</v>
+      </c>
+      <c r="AL2">
+        <v>0.67420000000000002</v>
+      </c>
+      <c r="AM2">
         <v>0.69969999999999999</v>
       </c>
-      <c r="AC2">
-        <v>0.69445000000000001</v>
-      </c>
-      <c r="AD2">
-        <v>0.66335</v>
-      </c>
-      <c r="AE2">
-        <v>0.69294999999999995</v>
-      </c>
-      <c r="AF2">
-        <v>0.71260000000000001</v>
-      </c>
-      <c r="AG2">
-        <v>0.67620000000000002</v>
-      </c>
-      <c r="AH2">
-        <v>0.68154999999999999</v>
-      </c>
-      <c r="AI2">
-        <v>0.68894999999999995</v>
-      </c>
-      <c r="AJ2">
-        <v>0.67979999999999996</v>
-      </c>
-      <c r="AK2">
-        <v>0.66190000000000004</v>
-      </c>
-      <c r="AL2">
-        <v>0.66854999999999998</v>
-      </c>
-      <c r="AM2">
-        <v>0.67059999999999997</v>
-      </c>
       <c r="AN2">
-        <v>0.67310000000000003</v>
+        <v>0.66364999999999996</v>
       </c>
       <c r="AO2">
-        <v>0.65134999999999998</v>
+        <v>0.45065</v>
       </c>
       <c r="AP2">
-        <v>0.64429999999999998</v>
+        <v>0.66839999999999999</v>
       </c>
       <c r="AQ2">
-        <v>0.67774999999999996</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="AR2">
-        <v>0.66664999999999996</v>
+        <v>0.68384999999999996</v>
       </c>
       <c r="AS2">
-        <v>0.68915000000000004</v>
+        <v>0.68964999999999999</v>
       </c>
       <c r="AT2">
-        <v>0.67620000000000002</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="AU2">
-        <v>0.65910000000000002</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="AV2">
-        <v>0.4345</v>
+        <v>0.68615000000000004</v>
       </c>
       <c r="AW2">
-        <v>0.72075</v>
+        <v>0.45379999999999998</v>
       </c>
       <c r="AX2">
-        <v>0.68079999999999996</v>
+        <v>0.69359999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.66405000000000003</v>
+        <v>0.67695000000000005</v>
       </c>
       <c r="B3">
-        <v>0.87370000000000003</v>
+        <v>0.40920000000000001</v>
       </c>
       <c r="C3">
-        <v>0.41735</v>
+        <v>0.65090000000000003</v>
       </c>
       <c r="D3">
-        <v>0.93930000000000002</v>
+        <v>0.64405000000000001</v>
       </c>
       <c r="E3">
-        <v>0.92930000000000001</v>
+        <v>0.64680000000000004</v>
       </c>
       <c r="F3">
-        <v>0.90834999999999999</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="G3">
-        <v>0.40594999999999998</v>
+        <v>0.63285000000000002</v>
       </c>
       <c r="H3">
-        <v>0.67520000000000002</v>
+        <v>0.40505000000000002</v>
       </c>
       <c r="I3">
-        <v>0.96345000000000003</v>
+        <v>0.86529999999999996</v>
       </c>
       <c r="J3">
-        <v>0.64580000000000004</v>
+        <v>0.6008</v>
       </c>
       <c r="K3">
-        <v>0.67605000000000004</v>
+        <v>0.67789999999999995</v>
       </c>
       <c r="L3">
-        <v>0.63034999999999997</v>
+        <v>0.59809999999999997</v>
       </c>
       <c r="M3">
-        <v>0.66169999999999995</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="N3">
-        <v>0.41660000000000003</v>
+        <v>0.85494999999999999</v>
       </c>
       <c r="O3">
-        <v>0.62995000000000001</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="P3">
-        <v>0.63365000000000005</v>
+        <v>0.59445000000000003</v>
       </c>
       <c r="Q3">
-        <v>0.6956</v>
+        <v>0.65485000000000004</v>
       </c>
       <c r="R3">
-        <v>0.91305000000000003</v>
+        <v>0.82164999999999999</v>
       </c>
       <c r="S3">
-        <v>0.41535</v>
+        <v>0.67235</v>
       </c>
       <c r="T3">
-        <v>0.69864999999999999</v>
+        <v>0.66595000000000004</v>
       </c>
       <c r="U3">
-        <v>0.66420000000000001</v>
+        <v>0.65810000000000002</v>
       </c>
       <c r="V3">
-        <v>0.62524999999999997</v>
+        <v>0.62039999999999995</v>
       </c>
       <c r="W3">
-        <v>0.62480000000000002</v>
+        <v>0.66239999999999999</v>
       </c>
       <c r="X3">
-        <v>0.66269999999999996</v>
+        <v>0.60980000000000001</v>
       </c>
       <c r="Y3">
-        <v>0.61795</v>
+        <v>0.66085000000000005</v>
       </c>
       <c r="Z3">
-        <v>0.63844999999999996</v>
+        <v>0.94189999999999996</v>
       </c>
       <c r="AA3">
-        <v>0.83250000000000002</v>
+        <v>0.67220000000000002</v>
       </c>
       <c r="AB3">
-        <v>0.68074999999999997</v>
+        <v>0.65980000000000005</v>
       </c>
       <c r="AC3">
-        <v>0.9284</v>
+        <v>0.93020000000000003</v>
       </c>
       <c r="AD3">
-        <v>0.85719999999999996</v>
+        <v>0.62214999999999998</v>
       </c>
       <c r="AE3">
-        <v>0.66720000000000002</v>
+        <v>0.60734999999999995</v>
       </c>
       <c r="AF3">
-        <v>0.93079999999999996</v>
+        <v>0.40344999999999998</v>
       </c>
       <c r="AG3">
-        <v>0.87865000000000004</v>
+        <v>0.6089</v>
       </c>
       <c r="AH3">
-        <v>0.66105000000000003</v>
+        <v>0.68015000000000003</v>
       </c>
       <c r="AI3">
-        <v>0.65464999999999995</v>
+        <v>0.39945000000000003</v>
       </c>
       <c r="AJ3">
-        <v>0.6694</v>
+        <v>0.69830000000000003</v>
       </c>
       <c r="AK3">
-        <v>0.61485000000000001</v>
+        <v>0.57389999999999997</v>
       </c>
       <c r="AL3">
-        <v>0.61414999999999997</v>
+        <v>0.62705</v>
       </c>
       <c r="AM3">
-        <v>0.61795</v>
+        <v>0.90654999999999997</v>
       </c>
       <c r="AN3">
-        <v>0.61094999999999999</v>
+        <v>0.63580000000000003</v>
       </c>
       <c r="AO3">
-        <v>0.62019999999999997</v>
+        <v>0.42325000000000002</v>
       </c>
       <c r="AP3">
-        <v>0.57979999999999998</v>
+        <v>0.63570000000000004</v>
       </c>
       <c r="AQ3">
-        <v>0.64585000000000004</v>
+        <v>0.68615000000000004</v>
       </c>
       <c r="AR3">
-        <v>0.70884999999999998</v>
+        <v>0.59279999999999999</v>
       </c>
       <c r="AS3">
-        <v>0.69464999999999999</v>
+        <v>0.70565</v>
       </c>
       <c r="AT3">
-        <v>0.62839999999999996</v>
+        <v>0.96225000000000005</v>
       </c>
       <c r="AU3">
-        <v>0.62034999999999996</v>
+        <v>0.41175</v>
       </c>
       <c r="AV3">
-        <v>0.38200000000000001</v>
+        <v>0.66305000000000003</v>
       </c>
       <c r="AW3">
-        <v>0.69455</v>
+        <v>0.42914999999999998</v>
       </c>
       <c r="AX3">
-        <v>0.59299999999999997</v>
+        <v>0.67059999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.85914999999999997</v>
+        <v>0.63614999999999999</v>
       </c>
       <c r="B4">
-        <v>0.83050000000000002</v>
+        <v>0.37495000000000001</v>
       </c>
       <c r="C4">
-        <v>0.33479999999999999</v>
+        <v>0.62514999999999998</v>
       </c>
       <c r="D4">
-        <v>0.86524999999999996</v>
+        <v>0.65554999999999997</v>
       </c>
       <c r="E4">
-        <v>0.91095000000000004</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="F4">
-        <v>0.86934999999999996</v>
+        <v>0.94910000000000005</v>
       </c>
       <c r="G4">
-        <v>0.37269999999999998</v>
+        <v>0.58235000000000003</v>
       </c>
       <c r="H4">
-        <v>0.62155000000000005</v>
+        <v>0.38469999999999999</v>
       </c>
       <c r="I4">
-        <v>0.93274999999999997</v>
+        <v>0.81105000000000005</v>
       </c>
       <c r="J4">
-        <v>0.60285</v>
+        <v>0.52554999999999996</v>
       </c>
       <c r="K4">
-        <v>0.66969999999999996</v>
+        <v>0.65315000000000001</v>
       </c>
       <c r="L4">
-        <v>0.55989999999999995</v>
+        <v>0.56369999999999998</v>
       </c>
       <c r="M4">
-        <v>0.94030000000000002</v>
+        <v>0.65964999999999996</v>
       </c>
       <c r="N4">
-        <v>0.36685000000000001</v>
+        <v>0.86375000000000002</v>
       </c>
       <c r="O4">
-        <v>0.89370000000000005</v>
+        <v>0.51639999999999997</v>
       </c>
       <c r="P4">
-        <v>0.57945000000000002</v>
+        <v>0.54679999999999995</v>
       </c>
       <c r="Q4">
-        <v>0.67025000000000001</v>
+        <v>0.82104999999999995</v>
       </c>
       <c r="R4">
-        <v>0.88639999999999997</v>
+        <v>0.78585000000000005</v>
       </c>
       <c r="S4">
-        <v>0.77869999999999995</v>
+        <v>0.58650000000000002</v>
       </c>
       <c r="T4">
-        <v>0.68089999999999995</v>
+        <v>0.63205</v>
       </c>
       <c r="U4">
-        <v>0.77975000000000005</v>
+        <v>0.58535000000000004</v>
       </c>
       <c r="V4">
-        <v>0.56040000000000001</v>
+        <v>0.61080000000000001</v>
       </c>
       <c r="W4">
-        <v>0.59260000000000002</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="X4">
-        <v>0.60304999999999997</v>
+        <v>0.59689999999999999</v>
       </c>
       <c r="Y4">
-        <v>0.57815000000000005</v>
+        <v>0.59394999999999998</v>
       </c>
       <c r="Z4">
-        <v>0.55710000000000004</v>
+        <v>0.85894999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.73375000000000001</v>
+        <v>0.61975000000000002</v>
       </c>
       <c r="AB4">
-        <v>0.66915000000000002</v>
+        <v>0.58930000000000005</v>
       </c>
       <c r="AC4">
-        <v>0.9244</v>
+        <v>0.86055000000000004</v>
       </c>
       <c r="AD4">
-        <v>0.78495000000000004</v>
+        <v>0.84619999999999995</v>
       </c>
       <c r="AE4">
-        <v>0.85965000000000003</v>
+        <v>0.55425000000000002</v>
       </c>
       <c r="AF4">
-        <v>0.87270000000000003</v>
+        <v>0.3553</v>
       </c>
       <c r="AG4">
-        <v>0.82374999999999998</v>
+        <v>0.5333</v>
       </c>
       <c r="AH4">
-        <v>0.57104999999999995</v>
+        <v>0.61109999999999998</v>
       </c>
       <c r="AI4">
-        <v>0.59065000000000001</v>
+        <v>0.58635000000000004</v>
       </c>
       <c r="AJ4">
-        <v>0.62029999999999996</v>
+        <v>0.8891</v>
       </c>
       <c r="AK4">
-        <v>0.58979999999999999</v>
+        <v>0.56855</v>
       </c>
       <c r="AL4">
-        <v>0.56000000000000005</v>
+        <v>0.53634999999999999</v>
       </c>
       <c r="AM4">
-        <v>0.55535000000000001</v>
+        <v>0.84575</v>
       </c>
       <c r="AN4">
-        <v>0.52954999999999997</v>
+        <v>0.57735000000000003</v>
       </c>
       <c r="AO4">
-        <v>0.54195000000000004</v>
+        <v>0.38105</v>
       </c>
       <c r="AP4">
-        <v>0.52954999999999997</v>
+        <v>0.54844999999999999</v>
       </c>
       <c r="AQ4">
-        <v>0.60409999999999997</v>
+        <v>0.92110000000000003</v>
       </c>
       <c r="AR4">
-        <v>0.92135</v>
+        <v>0.53954999999999997</v>
       </c>
       <c r="AS4">
-        <v>0.66864999999999997</v>
+        <v>0.67579999999999996</v>
       </c>
       <c r="AT4">
-        <v>0.54569999999999996</v>
+        <v>0.88529999999999998</v>
       </c>
       <c r="AU4">
-        <v>0.54959999999999998</v>
+        <v>0.61734999999999995</v>
       </c>
       <c r="AV4">
-        <v>0.63649999999999995</v>
+        <v>0.62509999999999999</v>
       </c>
       <c r="AW4">
-        <v>0.67154999999999998</v>
+        <v>0.37945000000000001</v>
       </c>
       <c r="AX4">
-        <v>0.53290000000000004</v>
+        <v>0.63034999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.80689999999999995</v>
+        <v>0.51585000000000003</v>
       </c>
       <c r="B5">
-        <v>0.75775000000000003</v>
+        <v>0.29775000000000001</v>
       </c>
       <c r="C5">
-        <v>0.48985000000000001</v>
+        <v>0.58645000000000003</v>
       </c>
       <c r="D5">
-        <v>0.81359999999999999</v>
+        <v>0.62775000000000003</v>
       </c>
       <c r="E5">
-        <v>0.83314999999999995</v>
+        <v>0.90059999999999996</v>
       </c>
       <c r="F5">
-        <v>0.78995000000000004</v>
+        <v>0.8992</v>
       </c>
       <c r="G5">
-        <v>0.32250000000000001</v>
+        <v>0.61675000000000002</v>
       </c>
       <c r="H5">
-        <v>0.57955000000000001</v>
+        <v>0.30709999999999998</v>
       </c>
       <c r="I5">
-        <v>0.82199999999999995</v>
+        <v>0.70794999999999997</v>
       </c>
       <c r="J5">
-        <v>0.49880000000000002</v>
+        <v>0.59119999999999995</v>
       </c>
       <c r="K5">
-        <v>0.96550000000000002</v>
+        <v>0.55735000000000001</v>
       </c>
       <c r="L5">
-        <v>0.45705000000000001</v>
+        <v>0.67415000000000003</v>
       </c>
       <c r="M5">
-        <v>0.92925000000000002</v>
+        <v>0.61960000000000004</v>
       </c>
       <c r="N5">
-        <v>0.63824999999999998</v>
+        <v>0.83514999999999995</v>
       </c>
       <c r="O5">
-        <v>0.86429999999999996</v>
+        <v>0.45334999999999998</v>
       </c>
       <c r="P5">
-        <v>0.87280000000000002</v>
+        <v>0.48315000000000002</v>
       </c>
       <c r="Q5">
-        <v>0.81305000000000005</v>
+        <v>0.81284999999999996</v>
       </c>
       <c r="R5">
-        <v>0.85704999999999998</v>
+        <v>0.82879999999999998</v>
       </c>
       <c r="S5">
-        <v>0.66639999999999999</v>
+        <v>0.55894999999999995</v>
       </c>
       <c r="T5">
-        <v>0.61094999999999999</v>
+        <v>0.53174999999999994</v>
       </c>
       <c r="U5">
-        <v>0.77529999999999999</v>
+        <v>0.62960000000000005</v>
       </c>
       <c r="V5">
-        <v>0.4617</v>
+        <v>0.56464999999999999</v>
       </c>
       <c r="W5">
-        <v>0.44345000000000001</v>
+        <v>0.51065000000000005</v>
       </c>
       <c r="X5">
-        <v>0.8831</v>
+        <v>0.48580000000000001</v>
       </c>
       <c r="Y5">
-        <v>0.55645</v>
+        <v>0.53049999999999997</v>
       </c>
       <c r="Z5">
-        <v>0.75139999999999996</v>
+        <v>0.84994999999999998</v>
       </c>
       <c r="AA5">
-        <v>0.76114999999999999</v>
+        <v>0.58655000000000002</v>
       </c>
       <c r="AB5">
-        <v>0.56874999999999998</v>
+        <v>0.67179999999999995</v>
       </c>
       <c r="AC5">
-        <v>0.93715000000000004</v>
+        <v>0.97235000000000005</v>
       </c>
       <c r="AD5">
-        <v>0.69650000000000001</v>
+        <v>0.82240000000000002</v>
       </c>
       <c r="AE5">
-        <v>0.78585000000000005</v>
+        <v>0.46124999999999999</v>
       </c>
       <c r="AF5">
-        <v>0.72704999999999997</v>
+        <v>0.318</v>
       </c>
       <c r="AG5">
-        <v>0.86750000000000005</v>
+        <v>0.51744999999999997</v>
       </c>
       <c r="AH5">
-        <v>0.47989999999999999</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="AI5">
-        <v>0.53134999999999999</v>
+        <v>0.52625</v>
       </c>
       <c r="AJ5">
-        <v>0.55345</v>
+        <v>0.96825000000000006</v>
       </c>
       <c r="AK5">
-        <v>0.5151</v>
+        <v>0.63554999999999995</v>
       </c>
       <c r="AL5">
-        <v>0.60875000000000001</v>
+        <v>0.73934999999999995</v>
       </c>
       <c r="AM5">
-        <v>0.45334999999999998</v>
+        <v>0.72340000000000004</v>
       </c>
       <c r="AN5">
-        <v>0.59484999999999999</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="AO5">
-        <v>0.62814999999999999</v>
+        <v>0.2949</v>
       </c>
       <c r="AP5">
-        <v>0.51014999999999999</v>
+        <v>0.40815000000000001</v>
       </c>
       <c r="AQ5">
-        <v>0.51270000000000004</v>
+        <v>0.94379999999999997</v>
       </c>
       <c r="AR5">
-        <v>0.87834999999999996</v>
+        <v>0.59565000000000001</v>
       </c>
       <c r="AS5">
-        <v>0.60745000000000005</v>
+        <v>0.64375000000000004</v>
       </c>
       <c r="AT5">
-        <v>0.78385000000000005</v>
+        <v>0.82415000000000005</v>
       </c>
       <c r="AU5">
-        <v>0.59975000000000001</v>
+        <v>0.46145000000000003</v>
       </c>
       <c r="AV5">
-        <v>0.81264999999999998</v>
+        <v>0.51585000000000003</v>
       </c>
       <c r="AW5">
-        <v>0.65625</v>
+        <v>0.3296</v>
       </c>
       <c r="AX5">
-        <v>0.47544999999999998</v>
+        <v>0.57169999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.69159999999999999</v>
+        <v>0.45965</v>
       </c>
       <c r="B6">
-        <v>0.71714999999999995</v>
+        <v>0.44345000000000001</v>
       </c>
       <c r="C6">
-        <v>0.89234999999999998</v>
+        <v>0.83555000000000001</v>
       </c>
       <c r="D6">
-        <v>0.76795000000000002</v>
+        <v>0.8619</v>
       </c>
       <c r="E6">
-        <v>0.87075000000000002</v>
+        <v>0.85609999999999997</v>
       </c>
       <c r="F6">
-        <v>0.80130000000000001</v>
+        <v>0.89075000000000004</v>
       </c>
       <c r="G6">
-        <v>0.23444999999999999</v>
+        <v>0.82720000000000005</v>
       </c>
       <c r="H6">
-        <v>0.37924999999999998</v>
+        <v>0.45860000000000001</v>
       </c>
       <c r="I6">
-        <v>0.93930000000000002</v>
+        <v>0.77070000000000005</v>
       </c>
       <c r="J6">
-        <v>0.58689999999999998</v>
+        <v>0.4607</v>
       </c>
       <c r="K6">
-        <v>0.79710000000000003</v>
+        <v>0.75234999999999996</v>
       </c>
       <c r="L6">
-        <v>0.54064999999999996</v>
+        <v>0.50004999999999999</v>
       </c>
       <c r="M6">
-        <v>0.89480000000000004</v>
+        <v>0.76424999999999998</v>
       </c>
       <c r="N6">
-        <v>0.59150000000000003</v>
+        <v>0.74450000000000005</v>
       </c>
       <c r="O6">
-        <v>0.75129999999999997</v>
+        <v>0.30230000000000001</v>
       </c>
       <c r="P6">
-        <v>0.74185000000000001</v>
+        <v>0.54830000000000001</v>
       </c>
       <c r="Q6">
-        <v>0.7671</v>
+        <v>0.90505000000000002</v>
       </c>
       <c r="R6">
-        <v>0.81630000000000003</v>
+        <v>0.74509999999999998</v>
       </c>
       <c r="S6">
-        <v>0.72909999999999997</v>
+        <v>0.50390000000000001</v>
       </c>
       <c r="T6">
-        <v>0.55445</v>
+        <v>0.36714999999999998</v>
       </c>
       <c r="U6">
-        <v>0.71550000000000002</v>
+        <v>0.79449999999999998</v>
       </c>
       <c r="V6">
-        <v>0.30130000000000001</v>
+        <v>0.58414999999999995</v>
       </c>
       <c r="W6">
-        <v>0.34694999999999998</v>
+        <v>0.55125000000000002</v>
       </c>
       <c r="X6">
-        <v>0.95065</v>
+        <v>0.39505000000000001</v>
       </c>
       <c r="Y6">
-        <v>0.55354999999999999</v>
+        <v>0.43990000000000001</v>
       </c>
       <c r="Z6">
-        <v>0.60370000000000001</v>
+        <v>0.75444999999999995</v>
       </c>
       <c r="AA6">
-        <v>0.70455000000000001</v>
+        <v>0.60755000000000003</v>
       </c>
       <c r="AB6">
-        <v>0.42199999999999999</v>
+        <v>0.64785000000000004</v>
       </c>
       <c r="AC6">
-        <v>0.89300000000000002</v>
+        <v>0.87585000000000002</v>
       </c>
       <c r="AD6">
-        <v>0.48199999999999998</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="AE6">
-        <v>0.66025</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="AF6">
-        <v>0.92730000000000001</v>
+        <v>0.64880000000000004</v>
       </c>
       <c r="AG6">
-        <v>0.88205</v>
+        <v>0.44209999999999999</v>
       </c>
       <c r="AH6">
-        <v>0.40570000000000001</v>
+        <v>0.32355</v>
       </c>
       <c r="AI6">
-        <v>0.55364999999999998</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="AJ6">
-        <v>0.4158</v>
+        <v>0.95345000000000002</v>
       </c>
       <c r="AK6">
-        <v>0.49075000000000002</v>
+        <v>0.7016</v>
       </c>
       <c r="AL6">
-        <v>0.5675</v>
+        <v>0.81845000000000001</v>
       </c>
       <c r="AM6">
-        <v>0.313</v>
+        <v>0.52815000000000001</v>
       </c>
       <c r="AN6">
-        <v>0.56589999999999996</v>
+        <v>0.40384999999999999</v>
       </c>
       <c r="AO6">
-        <v>0.66400000000000003</v>
+        <v>0.21315000000000001</v>
       </c>
       <c r="AP6">
-        <v>0.37459999999999999</v>
+        <v>0.36235000000000001</v>
       </c>
       <c r="AQ6">
-        <v>0.48995</v>
+        <v>0.90175000000000005</v>
       </c>
       <c r="AR6">
-        <v>0.76915</v>
+        <v>0.81205000000000005</v>
       </c>
       <c r="AS6">
-        <v>0.5867</v>
+        <v>0.59689999999999999</v>
       </c>
       <c r="AT6">
-        <v>0.70809999999999995</v>
+        <v>0.91144999999999998</v>
       </c>
       <c r="AU6">
-        <v>0.67179999999999995</v>
+        <v>0.77605000000000002</v>
       </c>
       <c r="AV6">
-        <v>0.65980000000000005</v>
+        <v>0.53610000000000002</v>
       </c>
       <c r="AW6">
-        <v>0.63295000000000001</v>
+        <v>0.40629999999999999</v>
       </c>
       <c r="AX6">
-        <v>0.75134999999999996</v>
+        <v>0.5585</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.50260000000000005</v>
+        <v>0.60014999999999996</v>
       </c>
       <c r="B7">
-        <v>0.63844999999999996</v>
+        <v>0.49545</v>
       </c>
       <c r="C7">
-        <v>0.92544999999999999</v>
+        <v>0.76165000000000005</v>
       </c>
       <c r="D7">
-        <v>0.88475000000000004</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="E7">
-        <v>0.73170000000000002</v>
+        <v>0.78139999999999998</v>
       </c>
       <c r="F7">
-        <v>0.75319999999999998</v>
+        <v>0.76934999999999998</v>
       </c>
       <c r="G7">
-        <v>0.14505000000000001</v>
+        <v>0.72970000000000002</v>
       </c>
       <c r="H7">
-        <v>0.58025000000000004</v>
+        <v>0.87114999999999998</v>
       </c>
       <c r="I7">
-        <v>0.88080000000000003</v>
+        <v>0.72035000000000005</v>
       </c>
       <c r="J7">
-        <v>0.56994999999999996</v>
+        <v>0.40275</v>
       </c>
       <c r="K7">
-        <v>0.89790000000000003</v>
+        <v>0.6865</v>
       </c>
       <c r="L7">
-        <v>0.36870000000000003</v>
+        <v>0.34689999999999999</v>
       </c>
       <c r="M7">
-        <v>0.8992</v>
+        <v>0.54890000000000005</v>
       </c>
       <c r="N7">
-        <v>0.74434999999999996</v>
+        <v>0.67059999999999997</v>
       </c>
       <c r="O7">
-        <v>0.67190000000000005</v>
+        <v>0.18845000000000001</v>
       </c>
       <c r="P7">
-        <v>0.61765000000000003</v>
+        <v>0.3337</v>
       </c>
       <c r="Q7">
-        <v>0.59919999999999995</v>
+        <v>0.86380000000000001</v>
       </c>
       <c r="R7">
-        <v>0.85060000000000002</v>
+        <v>0.66864999999999997</v>
       </c>
       <c r="S7">
-        <v>0.53625</v>
+        <v>0.41149999999999998</v>
       </c>
       <c r="T7">
-        <v>0.83084999999999998</v>
+        <v>0.42075000000000001</v>
       </c>
       <c r="U7">
-        <v>0.63749999999999996</v>
+        <v>0.94650000000000001</v>
       </c>
       <c r="V7">
-        <v>0.49025000000000002</v>
+        <v>0.53549999999999998</v>
       </c>
       <c r="W7">
-        <v>0.67264999999999997</v>
+        <v>0.49664999999999998</v>
       </c>
       <c r="X7">
-        <v>0.92805000000000004</v>
+        <v>0.55769999999999997</v>
       </c>
       <c r="Y7">
-        <v>0.53115000000000001</v>
+        <v>0.501</v>
       </c>
       <c r="Z7">
-        <v>0.57499999999999996</v>
+        <v>0.66159999999999997</v>
       </c>
       <c r="AA7">
-        <v>0.57125000000000004</v>
+        <v>0.85840000000000005</v>
       </c>
       <c r="AB7">
-        <v>0.45384999999999998</v>
+        <v>0.74985000000000002</v>
       </c>
       <c r="AC7">
-        <v>0.9113</v>
+        <v>0.73394999999999999</v>
       </c>
       <c r="AD7">
-        <v>0.42685000000000001</v>
+        <v>0.88480000000000003</v>
       </c>
       <c r="AE7">
-        <v>0.503</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="AF7">
-        <v>0.87460000000000004</v>
+        <v>0.64505000000000001</v>
       </c>
       <c r="AG7">
-        <v>0.75665000000000004</v>
+        <v>0.23485</v>
       </c>
       <c r="AH7">
-        <v>0.35435</v>
+        <v>0.21235000000000001</v>
       </c>
       <c r="AI7">
-        <v>0.52195000000000003</v>
+        <v>0.46910000000000002</v>
       </c>
       <c r="AJ7">
-        <v>0.34</v>
+        <v>0.85</v>
       </c>
       <c r="AK7">
-        <v>0.33839999999999998</v>
+        <v>0.54844999999999999</v>
       </c>
       <c r="AL7">
-        <v>0.48204999999999998</v>
+        <v>0.64780000000000004</v>
       </c>
       <c r="AM7">
-        <v>0.19489999999999999</v>
+        <v>0.69740000000000002</v>
       </c>
       <c r="AN7">
-        <v>0.55205000000000004</v>
+        <v>0.52910000000000001</v>
       </c>
       <c r="AO7">
-        <v>0.58299999999999996</v>
+        <v>0.309</v>
       </c>
       <c r="AP7">
-        <v>0.39760000000000001</v>
+        <v>0.28084999999999999</v>
       </c>
       <c r="AQ7">
-        <v>0.38009999999999999</v>
+        <v>0.83130000000000004</v>
       </c>
       <c r="AR7">
-        <v>0.87555000000000005</v>
+        <v>0.69345000000000001</v>
       </c>
       <c r="AS7">
-        <v>0.67179999999999995</v>
+        <v>0.54190000000000005</v>
       </c>
       <c r="AT7">
-        <v>0.57389999999999997</v>
+        <v>0.8508</v>
       </c>
       <c r="AU7">
-        <v>0.54559999999999997</v>
+        <v>0.56415000000000004</v>
       </c>
       <c r="AV7">
-        <v>0.76495000000000002</v>
+        <v>0.53974999999999995</v>
       </c>
       <c r="AW7">
-        <v>0.87524999999999997</v>
+        <v>0.33065</v>
       </c>
       <c r="AX7">
-        <v>0.71260000000000001</v>
+        <v>0.52754999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.50924999999999998</v>
+        <v>0.51370000000000005</v>
       </c>
       <c r="B8">
-        <v>0.43114999999999998</v>
+        <v>0.45924999999999999</v>
       </c>
       <c r="C8">
-        <v>0.81855</v>
+        <v>0.628</v>
       </c>
       <c r="D8">
-        <v>0.78369999999999995</v>
+        <v>0.84750000000000003</v>
       </c>
       <c r="E8">
-        <v>0.49104999999999999</v>
+        <v>0.8125</v>
       </c>
       <c r="F8">
-        <v>0.74709999999999999</v>
+        <v>0.77185000000000004</v>
       </c>
       <c r="G8">
-        <v>3.9849999999999997E-2</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="H8">
-        <v>0.77929999999999999</v>
+        <v>0.72524999999999995</v>
       </c>
       <c r="I8">
-        <v>0.77915000000000001</v>
+        <v>0.66795000000000004</v>
       </c>
       <c r="J8">
-        <v>0.52490000000000003</v>
+        <v>0.3392</v>
       </c>
       <c r="K8">
-        <v>0.80645</v>
+        <v>0.53810000000000002</v>
       </c>
       <c r="L8">
-        <v>0.2626</v>
+        <v>0.54039999999999999</v>
       </c>
       <c r="M8">
-        <v>0.90600000000000003</v>
+        <v>0.80089999999999995</v>
       </c>
       <c r="N8">
-        <v>0.70340000000000003</v>
+        <v>0.49640000000000001</v>
       </c>
       <c r="O8">
-        <v>0.90195000000000003</v>
+        <v>0.1153</v>
       </c>
       <c r="P8">
-        <v>0.64290000000000003</v>
+        <v>0.42065000000000002</v>
       </c>
       <c r="Q8">
-        <v>0.53280000000000005</v>
+        <v>0.92610000000000003</v>
       </c>
       <c r="R8">
-        <v>0.82220000000000004</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="S8">
-        <v>0.41360000000000002</v>
+        <v>0.63124999999999998</v>
       </c>
       <c r="T8">
-        <v>0.95584999999999998</v>
+        <v>0.48935000000000001</v>
       </c>
       <c r="U8">
-        <v>0.90300000000000002</v>
+        <v>0.90169999999999995</v>
       </c>
       <c r="V8">
-        <v>0.43664999999999998</v>
+        <v>0.68725000000000003</v>
       </c>
       <c r="W8">
-        <v>0.51005</v>
+        <v>0.69450000000000001</v>
       </c>
       <c r="X8">
-        <v>0.85140000000000005</v>
+        <v>0.58294999999999997</v>
       </c>
       <c r="Y8">
-        <v>0.68300000000000005</v>
+        <v>0.37880000000000003</v>
       </c>
       <c r="Z8">
-        <v>0.58494999999999997</v>
+        <v>0.57215000000000005</v>
       </c>
       <c r="AA8">
-        <v>0.50524999999999998</v>
+        <v>0.7117</v>
       </c>
       <c r="AB8">
-        <v>0.37340000000000001</v>
+        <v>0.75480000000000003</v>
       </c>
       <c r="AC8">
-        <v>0.98799999999999999</v>
+        <v>0.7288</v>
       </c>
       <c r="AD8">
-        <v>0.45105000000000001</v>
+        <v>0.76375000000000004</v>
       </c>
       <c r="AE8">
-        <v>0.61765000000000003</v>
+        <v>0.43835000000000002</v>
       </c>
       <c r="AF8">
-        <v>0.81164999999999998</v>
+        <v>0.48549999999999999</v>
       </c>
       <c r="AG8">
-        <v>0.88470000000000004</v>
+        <v>0.2102</v>
       </c>
       <c r="AH8">
-        <v>0.23995</v>
+        <v>0.21185000000000001</v>
       </c>
       <c r="AI8">
-        <v>0.41935</v>
+        <v>0.48730000000000001</v>
       </c>
       <c r="AJ8">
-        <v>0.33360000000000001</v>
+        <v>0.74804999999999999</v>
       </c>
       <c r="AK8">
-        <v>0.39279999999999998</v>
+        <v>0.36549999999999999</v>
       </c>
       <c r="AL8">
-        <v>0.61799999999999999</v>
+        <v>0.57679999999999998</v>
       </c>
       <c r="AM8">
-        <v>0.27450000000000002</v>
+        <v>0.48070000000000002</v>
       </c>
       <c r="AN8">
-        <v>0.50060000000000004</v>
+        <v>0.61070000000000002</v>
       </c>
       <c r="AO8">
-        <v>0.76100000000000001</v>
+        <v>0.40649999999999997</v>
       </c>
       <c r="AP8">
-        <v>0.37714999999999999</v>
+        <v>0.14465</v>
       </c>
       <c r="AQ8">
-        <v>0.43685000000000002</v>
+        <v>0.66479999999999995</v>
       </c>
       <c r="AR8">
-        <v>0.79164999999999996</v>
+        <v>0.58115000000000006</v>
       </c>
       <c r="AS8">
-        <v>0.85965000000000003</v>
+        <v>0.4425</v>
       </c>
       <c r="AT8">
-        <v>0.73760000000000003</v>
+        <v>0.93469999999999998</v>
       </c>
       <c r="AU8">
-        <v>0.46639999999999998</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="AV8">
-        <v>0.81810000000000005</v>
+        <v>0.48235</v>
       </c>
       <c r="AW8">
-        <v>0.83040000000000003</v>
+        <v>0.21345</v>
       </c>
       <c r="AX8">
-        <v>0.60750000000000004</v>
+        <v>0.33665</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.34029999999999999</v>
+        <v>0.40155000000000002</v>
       </c>
       <c r="B9">
-        <v>0.57609999999999995</v>
+        <v>0.24435000000000001</v>
       </c>
       <c r="C9">
-        <v>0.52480000000000004</v>
+        <v>0.75934999999999997</v>
       </c>
       <c r="D9">
-        <v>0.71309999999999996</v>
+        <v>0.9163</v>
       </c>
       <c r="E9">
-        <v>0.35799999999999998</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="F9">
-        <v>0.65239999999999998</v>
+        <v>0.69689999999999996</v>
       </c>
       <c r="G9">
-        <v>8.2449999999999996E-2</v>
+        <v>0.58440000000000003</v>
       </c>
       <c r="H9">
-        <v>0.56045</v>
+        <v>0.55520000000000003</v>
       </c>
       <c r="I9">
-        <v>0.56305000000000005</v>
+        <v>0.55235000000000001</v>
       </c>
       <c r="J9">
-        <v>0.75595000000000001</v>
+        <v>0.44729999999999998</v>
       </c>
       <c r="K9">
-        <v>0.72450000000000003</v>
+        <v>0.40550000000000003</v>
       </c>
       <c r="L9">
-        <v>0.38655</v>
+        <v>0.47025</v>
       </c>
       <c r="M9">
-        <v>0.76375000000000004</v>
+        <v>0.87180000000000002</v>
       </c>
       <c r="N9">
-        <v>0.73629999999999995</v>
+        <v>0.4577</v>
       </c>
       <c r="O9">
-        <v>0.83799999999999997</v>
+        <v>0.15265000000000001</v>
       </c>
       <c r="P9">
-        <v>0.64790000000000003</v>
+        <v>0.31474999999999997</v>
       </c>
       <c r="Q9">
-        <v>0.64864999999999995</v>
+        <v>0.94455</v>
       </c>
       <c r="R9">
-        <v>0.75890000000000002</v>
+        <v>0.81410000000000005</v>
       </c>
       <c r="S9">
-        <v>0.32500000000000001</v>
+        <v>0.80110000000000003</v>
       </c>
       <c r="T9">
-        <v>0.96199999999999997</v>
+        <v>0.74050000000000005</v>
       </c>
       <c r="U9">
-        <v>0.8296</v>
+        <v>0.97589999999999999</v>
       </c>
       <c r="V9">
-        <v>0.52210000000000001</v>
+        <v>0.57394999999999996</v>
       </c>
       <c r="W9">
-        <v>0.48454999999999998</v>
+        <v>0.69310000000000005</v>
       </c>
       <c r="X9">
-        <v>0.71989999999999998</v>
+        <v>0.65180000000000005</v>
       </c>
       <c r="Y9">
-        <v>0.66554999999999997</v>
+        <v>0.45765</v>
       </c>
       <c r="Z9">
-        <v>0.53139999999999998</v>
+        <v>0.57379999999999998</v>
       </c>
       <c r="AA9">
-        <v>0.49575000000000002</v>
+        <v>0.58320000000000005</v>
       </c>
       <c r="AB9">
-        <v>0.26155</v>
+        <v>0.8175</v>
       </c>
       <c r="AC9">
-        <v>0.96389999999999998</v>
+        <v>0.78685000000000005</v>
       </c>
       <c r="AD9">
-        <v>0.55095000000000005</v>
+        <v>0.57569999999999999</v>
       </c>
       <c r="AE9">
-        <v>0.33929999999999999</v>
+        <v>0.49514999999999998</v>
       </c>
       <c r="AF9">
-        <v>0.63590000000000002</v>
+        <v>0.45265</v>
       </c>
       <c r="AG9">
-        <v>0.873</v>
+        <v>0.34244999999999998</v>
       </c>
       <c r="AH9">
-        <v>0.12684999999999999</v>
+        <v>0.4199</v>
       </c>
       <c r="AI9">
-        <v>0.61765000000000003</v>
+        <v>0.52615000000000001</v>
       </c>
       <c r="AJ9">
-        <v>0.52100000000000002</v>
+        <v>0.65090000000000003</v>
       </c>
       <c r="AK9">
-        <v>0.7329</v>
+        <v>0.20075000000000001</v>
       </c>
       <c r="AL9">
-        <v>0.71775</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="AM9">
-        <v>0.28754999999999997</v>
+        <v>0.69489999999999996</v>
       </c>
       <c r="AN9">
-        <v>0.50734999999999997</v>
+        <v>0.59294999999999998</v>
       </c>
       <c r="AO9">
-        <v>0.69579999999999997</v>
+        <v>0.25295000000000001</v>
       </c>
       <c r="AP9">
-        <v>0.4113</v>
+        <v>0.31929999999999997</v>
       </c>
       <c r="AQ9">
-        <v>0.34010000000000001</v>
+        <v>0.41234999999999999</v>
       </c>
       <c r="AR9">
-        <v>0.73724999999999996</v>
+        <v>0.58620000000000005</v>
       </c>
       <c r="AS9">
-        <v>0.86094999999999999</v>
+        <v>0.71425000000000005</v>
       </c>
       <c r="AT9">
-        <v>0.78510000000000002</v>
+        <v>0.93320000000000003</v>
       </c>
       <c r="AU9">
-        <v>0.39</v>
+        <v>0.20075000000000001</v>
       </c>
       <c r="AV9">
-        <v>0.92689999999999995</v>
+        <v>0.57010000000000005</v>
       </c>
       <c r="AW9">
-        <v>0.61755000000000004</v>
+        <v>0.30804999999999999</v>
       </c>
       <c r="AX9">
-        <v>0.77880000000000005</v>
+        <v>0.12425</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.2858</v>
+        <v>0.20175000000000001</v>
       </c>
       <c r="B10">
-        <v>0.48415000000000002</v>
+        <v>0.27834999999999999</v>
       </c>
       <c r="C10">
-        <v>0.43154999999999999</v>
+        <v>0.69630000000000003</v>
       </c>
       <c r="D10">
-        <v>0.85799999999999998</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="E10">
-        <v>0.34844999999999998</v>
+        <v>0.82289999999999996</v>
       </c>
       <c r="F10">
-        <v>0.8</v>
+        <v>0.89354999999999996</v>
       </c>
       <c r="G10">
-        <v>2.9250000000000002E-2</v>
+        <v>0.51305000000000001</v>
       </c>
       <c r="H10">
-        <v>0.56789999999999996</v>
+        <v>0.25664999999999999</v>
       </c>
       <c r="I10">
-        <v>0.63834999999999997</v>
+        <v>0.47205000000000003</v>
       </c>
       <c r="J10">
-        <v>0.73909999999999998</v>
+        <v>0.40720000000000001</v>
       </c>
       <c r="K10">
-        <v>0.65715000000000001</v>
+        <v>0.43809999999999999</v>
       </c>
       <c r="L10">
-        <v>0.29089999999999999</v>
+        <v>0.63785000000000003</v>
       </c>
       <c r="M10">
-        <v>0.66979999999999995</v>
+        <v>0.7409</v>
       </c>
       <c r="N10">
-        <v>0.67610000000000003</v>
+        <v>0.4229</v>
       </c>
       <c r="O10">
-        <v>0.89390000000000003</v>
+        <v>0.46494999999999997</v>
       </c>
       <c r="P10">
-        <v>0.56930000000000003</v>
+        <v>7.0949999999999999E-2</v>
       </c>
       <c r="Q10">
-        <v>0.56610000000000005</v>
+        <v>0.96935000000000004</v>
       </c>
       <c r="R10">
-        <v>0.65229999999999999</v>
+        <v>0.77639999999999998</v>
       </c>
       <c r="S10">
-        <v>0.39900000000000002</v>
+        <v>0.74580000000000002</v>
       </c>
       <c r="T10">
-        <v>0.91279999999999994</v>
+        <v>0.70950000000000002</v>
       </c>
       <c r="U10">
-        <v>0.76529999999999998</v>
+        <v>0.91390000000000005</v>
       </c>
       <c r="V10">
-        <v>0.59889999999999999</v>
+        <v>0.61294999999999999</v>
       </c>
       <c r="W10">
-        <v>0.48280000000000001</v>
+        <v>0.73319999999999996</v>
       </c>
       <c r="X10">
-        <v>0.87709999999999999</v>
+        <v>0.74870000000000003</v>
       </c>
       <c r="Y10">
-        <v>0.41520000000000001</v>
+        <v>0.28584999999999999</v>
       </c>
       <c r="Z10">
-        <v>0.57435000000000003</v>
+        <v>0.54149999999999998</v>
       </c>
       <c r="AA10">
-        <v>0.55825000000000002</v>
+        <v>0.41060000000000002</v>
       </c>
       <c r="AB10">
-        <v>0.28394999999999998</v>
+        <v>0.76595000000000002</v>
       </c>
       <c r="AC10">
-        <v>0.86119999999999997</v>
+        <v>0.69740000000000002</v>
       </c>
       <c r="AD10">
-        <v>0.57245000000000001</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="AE10">
-        <v>0.3508</v>
+        <v>0.54784999999999995</v>
       </c>
       <c r="AF10">
-        <v>0.7056</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="AG10">
-        <v>0.94730000000000003</v>
+        <v>0.44124999999999998</v>
       </c>
       <c r="AH10">
-        <v>0.12695000000000001</v>
+        <v>0.37440000000000001</v>
       </c>
       <c r="AI10">
-        <v>0.63719999999999999</v>
+        <v>0.59309999999999996</v>
       </c>
       <c r="AJ10">
-        <v>0.75770000000000004</v>
+        <v>0.4975</v>
       </c>
       <c r="AK10">
-        <v>0.78849999999999998</v>
+        <v>9.7949999999999995E-2</v>
       </c>
       <c r="AL10">
-        <v>0.78295000000000003</v>
+        <v>0.33679999999999999</v>
       </c>
       <c r="AM10">
-        <v>0.45150000000000001</v>
+        <v>0.79354999999999998</v>
       </c>
       <c r="AN10">
-        <v>0.49469999999999997</v>
+        <v>0.78139999999999998</v>
       </c>
       <c r="AO10">
-        <v>0.62309999999999999</v>
+        <v>0.15495</v>
       </c>
       <c r="AP10">
-        <v>0.46689999999999998</v>
+        <v>0.54710000000000003</v>
       </c>
       <c r="AQ10">
-        <v>0.31630000000000003</v>
+        <v>0.46074999999999999</v>
       </c>
       <c r="AR10">
-        <v>0.70965</v>
+        <v>0.44455</v>
       </c>
       <c r="AS10">
-        <v>0.79330000000000001</v>
+        <v>0.44095000000000001</v>
       </c>
       <c r="AT10">
-        <v>0.78549999999999998</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="AU10">
-        <v>0.38614999999999999</v>
+        <v>0.20805000000000001</v>
       </c>
       <c r="AV10">
-        <v>0.79039999999999999</v>
+        <v>0.50529999999999997</v>
       </c>
       <c r="AW10">
-        <v>0.46729999999999999</v>
+        <v>0.46005000000000001</v>
       </c>
       <c r="AX10">
-        <v>0.61760000000000004</v>
+        <v>0.10879999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.16370000000000001</v>
+        <v>0.61470000000000002</v>
       </c>
       <c r="B11">
-        <v>0.28029999999999999</v>
+        <v>0.65139999999999998</v>
       </c>
       <c r="C11">
-        <v>0.11774999999999999</v>
+        <v>0.6704</v>
       </c>
       <c r="D11">
-        <v>0.69950000000000001</v>
+        <v>0.6179</v>
       </c>
       <c r="E11">
-        <v>0.50390000000000001</v>
+        <v>0.76939999999999997</v>
       </c>
       <c r="F11">
-        <v>0.62490000000000001</v>
+        <v>0.83825000000000005</v>
       </c>
       <c r="G11">
-        <v>2.24E-2</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="H11">
-        <v>0.38905000000000001</v>
+        <v>0.47810000000000002</v>
       </c>
       <c r="I11">
-        <v>0.53305000000000002</v>
+        <v>0.66579999999999995</v>
       </c>
       <c r="J11">
-        <v>0.66700000000000004</v>
+        <v>0.49930000000000002</v>
       </c>
       <c r="K11">
-        <v>0.56820000000000004</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="L11">
-        <v>0.42770000000000002</v>
+        <v>0.34970000000000001</v>
       </c>
       <c r="M11">
-        <v>0.64134999999999998</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="N11">
-        <v>0.70109999999999995</v>
+        <v>0.49809999999999999</v>
       </c>
       <c r="O11">
-        <v>0.8034</v>
+        <v>0.43120000000000003</v>
       </c>
       <c r="P11">
-        <v>0.57940000000000003</v>
+        <v>0.1651</v>
       </c>
       <c r="Q11">
-        <v>0.48759999999999998</v>
+        <v>0.97189999999999999</v>
       </c>
       <c r="R11">
-        <v>0.65285000000000004</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="S11">
-        <v>0.48054999999999998</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="T11">
-        <v>0.7732</v>
+        <v>0.6714</v>
       </c>
       <c r="U11">
-        <v>0.88480000000000003</v>
+        <v>0.96250000000000002</v>
       </c>
       <c r="V11">
-        <v>0.41289999999999999</v>
+        <v>0.64875000000000005</v>
       </c>
       <c r="W11">
-        <v>0.53159999999999996</v>
+        <v>0.69850000000000001</v>
       </c>
       <c r="X11">
-        <v>0.73634999999999995</v>
+        <v>0.67630000000000001</v>
       </c>
       <c r="Y11">
-        <v>0.57679999999999998</v>
+        <v>0.16705</v>
       </c>
       <c r="Z11">
-        <v>0.69640000000000002</v>
+        <v>0.7238</v>
       </c>
       <c r="AA11">
-        <v>0.72319999999999995</v>
+        <v>0.22339999999999999</v>
       </c>
       <c r="AB11">
-        <v>0.3695</v>
+        <v>0.54979999999999996</v>
       </c>
       <c r="AC11">
-        <v>0.72230000000000005</v>
+        <v>0.69940000000000002</v>
       </c>
       <c r="AD11">
-        <v>0.42885000000000001</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="AE11">
-        <v>0.39215</v>
+        <v>0.50260000000000005</v>
       </c>
       <c r="AF11">
-        <v>0.65339999999999998</v>
+        <v>0.29809999999999998</v>
       </c>
       <c r="AG11">
-        <v>0.94269999999999998</v>
+        <v>0.4859</v>
       </c>
       <c r="AH11">
-        <v>0.11045000000000001</v>
+        <v>0.54169999999999996</v>
       </c>
       <c r="AI11">
-        <v>0.55489999999999995</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="AJ11">
-        <v>0.65944999999999998</v>
+        <v>0.33660000000000001</v>
       </c>
       <c r="AK11">
-        <v>0.67920000000000003</v>
+        <v>2.98E-2</v>
       </c>
       <c r="AL11">
-        <v>0.78610000000000002</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="AM11">
-        <v>0.43740000000000001</v>
+        <v>0.89249999999999996</v>
       </c>
       <c r="AN11">
-        <v>0.33979999999999999</v>
+        <v>0.71850000000000003</v>
       </c>
       <c r="AO11">
-        <v>0.57815000000000005</v>
+        <v>0.32550000000000001</v>
       </c>
       <c r="AP11">
-        <v>0.46110000000000001</v>
+        <v>0.65969999999999995</v>
       </c>
       <c r="AQ11">
-        <v>0.2228</v>
+        <v>0.77980000000000005</v>
       </c>
       <c r="AR11">
-        <v>0.75790000000000002</v>
+        <v>0.32540000000000002</v>
       </c>
       <c r="AS11">
-        <v>0.64370000000000005</v>
+        <v>0.5958</v>
       </c>
       <c r="AT11">
-        <v>0.82389999999999997</v>
+        <v>0.81859999999999999</v>
       </c>
       <c r="AU11">
-        <v>0.41499999999999998</v>
+        <v>0.1981</v>
       </c>
       <c r="AV11">
-        <v>0.85580000000000001</v>
+        <v>0.57525000000000004</v>
       </c>
       <c r="AW11">
-        <v>0.54010000000000002</v>
+        <v>0.46260000000000001</v>
       </c>
       <c r="AX11">
-        <v>0.54484999999999995</v>
+        <v>5.6099999999999997E-2</v>
       </c>
     </row>
   </sheetData>
